--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Project</t>
   </si>
@@ -53,10 +53,10 @@
     <t>.zh-Hans</t>
   </si>
   <si>
-    <t>CoreLib</t>
-  </si>
-  <si>
-    <t>Resources\Strings</t>
+    <t>CoreLib, Private.CoreLib</t>
+  </si>
+  <si>
+    <t>Strings</t>
   </si>
   <si>
     <t>ResourceStringResolver_not_support_resourcemanager</t>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>资源名称是必需的。不可以为 null、"String.Empty" 或者全部为空白符。</t>
+  </si>
+  <si>
+    <t>ArgumentNullException_default_message</t>
+  </si>
+  <si>
+    <t>This method may be missing a required parameter value.</t>
+  </si>
+  <si>
+    <t>此方法可能缺少了必需的參數值。</t>
+  </si>
+  <si>
+    <t>此方法可能缺少了必需的参数值。</t>
+  </si>
+  <si>
+    <t>ArgumentNullException_with_parameter_name</t>
+  </si>
+  <si>
+    <t>This method may be missing a required parameter value: {0}.</t>
+  </si>
+  <si>
+    <t>此方法可能缺少了必需的參數值：{0}。</t>
+  </si>
+  <si>
+    <t>此方法可能缺少了必需的参数值：{0}。</t>
   </si>
 </sst>
 </file>
@@ -93,7 +117,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +130,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -562,148 +579,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,19 +1268,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
@@ -1344,6 +1361,52 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Project</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>此方法可能缺少了必需的参数值：{0}。</t>
+  </si>
+  <si>
+    <t>ArgumentNullException_with_method_and_parameter_name</t>
+  </si>
+  <si>
+    <t>The method "{0}" may be missing the required parameter value: {1}.</t>
+  </si>
+  <si>
+    <t>方法 「{0}」 可能缺少了必需的參數值：{1}。</t>
+  </si>
+  <si>
+    <t>方法 “{0}” 可能缺少了必需的参数值：{1}。</t>
   </si>
 </sst>
 </file>
@@ -1268,17 +1280,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -1407,6 +1419,29 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>Project</t>
   </si>
@@ -117,6 +117,42 @@
   </si>
   <si>
     <t>方法 “{0}” 可能缺少了必需的参数值：{1}。</t>
+  </si>
+  <si>
+    <t>ArgumentException_default_message</t>
+  </si>
+  <si>
+    <t>Invalid method parameter value.</t>
+  </si>
+  <si>
+    <t>無效的方法參數值。</t>
+  </si>
+  <si>
+    <t>无效的方法参数值。</t>
+  </si>
+  <si>
+    <t>ArgumentException_with_parameter_name</t>
+  </si>
+  <si>
+    <t>Invalid method parameter value. The parameter name is {0}.</t>
+  </si>
+  <si>
+    <t>無效的方法參數值。 參數名稱為：「{0}」。</t>
+  </si>
+  <si>
+    <t>无效的方法参数值。参数名称为：“{0}”。</t>
+  </si>
+  <si>
+    <t>ArgumentException_with_method_and_parameter_name</t>
+  </si>
+  <si>
+    <t>Invalid method ({0}) parameter value. The parameter name is {1}.</t>
+  </si>
+  <si>
+    <t>無效的方法 （{0}） 參數值。 參數名稱為：「{1}」。</t>
+  </si>
+  <si>
+    <t>无效的方法 （{0}） 参数值。参数名称为：“{1}”。</t>
   </si>
 </sst>
 </file>
@@ -1280,24 +1316,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="50.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="33.75" style="1" customWidth="1"/>
+    <col min="1" max="8" width="32.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1440,6 +1471,75 @@
       </c>
       <c r="H6" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -1323,7 +1323,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -1323,7 +1323,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Project</t>
   </si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>无效的方法 （{0}） 参数值。参数名称为：“{1}”。</t>
+  </si>
+  <si>
+    <t>InvalidPortException_default_message</t>
+  </si>
+  <si>
+    <t>Invalid network communication port number.</t>
+  </si>
+  <si>
+    <t>無效的網路通信埠號。</t>
+  </si>
+  <si>
+    <t>无效的网络通信端口号。</t>
+  </si>
+  <si>
+    <t>InvalidPortException_with_port</t>
+  </si>
+  <si>
+    <t>Invalid network communication port number "{0}".</t>
+  </si>
+  <si>
+    <t>無效的網路通信埠號 「{0}」。</t>
+  </si>
+  <si>
+    <t>无效的网络通信端口号 “{0}”。</t>
   </si>
 </sst>
 </file>
@@ -1316,14 +1340,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>
@@ -1542,6 +1566,52 @@
         <v>41</v>
       </c>
     </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -1347,7 +1347,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -1347,7 +1347,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Project</t>
   </si>
@@ -177,6 +177,84 @@
   </si>
   <si>
     <t>无效的网络通信端口号 “{0}”。</t>
+  </si>
+  <si>
+    <t>DateTime_GetDescription_just_now</t>
+  </si>
+  <si>
+    <t>1 分钟以内</t>
+  </si>
+  <si>
+    <t>Just now</t>
+  </si>
+  <si>
+    <t>就在剛剛</t>
+  </si>
+  <si>
+    <t>就在刚刚</t>
+  </si>
+  <si>
+    <t>DateTime_GetDescription_minutes</t>
+  </si>
+  <si>
+    <t>60 分钟以内</t>
+  </si>
+  <si>
+    <t>{0} minutes ago</t>
+  </si>
+  <si>
+    <t>{0} 分鐘前</t>
+  </si>
+  <si>
+    <t>{0} 分钟前</t>
+  </si>
+  <si>
+    <t>DateTime_GetDescription_hours</t>
+  </si>
+  <si>
+    <t>24 小时以内</t>
+  </si>
+  <si>
+    <t>{0} hours ago</t>
+  </si>
+  <si>
+    <t>{0} 小時前</t>
+  </si>
+  <si>
+    <t>{0} 小时前</t>
+  </si>
+  <si>
+    <t>DateTime_GetDescription_days</t>
+  </si>
+  <si>
+    <t>180 天以内</t>
+  </si>
+  <si>
+    <t>{0} days ago</t>
+  </si>
+  <si>
+    <t>{0} 天前</t>
+  </si>
+  <si>
+    <t>DateTime_GetDescription_same_year</t>
+  </si>
+  <si>
+    <t>180 天以上且在同一年</t>
+  </si>
+  <si>
+    <t>dd/MM</t>
+  </si>
+  <si>
+    <t>MM月dd日</t>
+  </si>
+  <si>
+    <t>DateTime_GetDescription_default</t>
+  </si>
+  <si>
+    <t>dd/MM/yyyy</t>
+  </si>
+  <si>
+    <t>yyyy年MM月dd日</t>
   </si>
 </sst>
 </file>
@@ -1340,14 +1418,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>
@@ -1612,6 +1690,159 @@
         <v>49</v>
       </c>
     </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -1425,7 +1425,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>Project</t>
   </si>
@@ -255,6 +255,30 @@
   </si>
   <si>
     <t>yyyy年MM月dd日</t>
+  </si>
+  <si>
+    <t>FileNotFoundException_default_message</t>
+  </si>
+  <si>
+    <t>The file does not exist.</t>
+  </si>
+  <si>
+    <t>檔不存在。</t>
+  </si>
+  <si>
+    <t>文件不存在。</t>
+  </si>
+  <si>
+    <t>FileNotFoundException_with_file_path</t>
+  </si>
+  <si>
+    <t>File "{0}" does not exist.</t>
+  </si>
+  <si>
+    <t>檔 「{0}」不存在。</t>
+  </si>
+  <si>
+    <t>文件 “{0}”不存在。</t>
   </si>
 </sst>
 </file>
@@ -1418,14 +1442,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>
@@ -1843,6 +1867,52 @@
         <v>75</v>
       </c>
     </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>Project</t>
   </si>
@@ -272,13 +272,37 @@
     <t>FileNotFoundException_with_file_path</t>
   </si>
   <si>
-    <t>File "{0}" does not exist.</t>
+    <t>The file "{0}" does not exist.</t>
   </si>
   <si>
     <t>檔 「{0}」不存在。</t>
   </si>
   <si>
     <t>文件 “{0}”不存在。</t>
+  </si>
+  <si>
+    <t>DirectoryNotFoundException_default_message</t>
+  </si>
+  <si>
+    <t>The directory does not exist.</t>
+  </si>
+  <si>
+    <t>路徑不存在。</t>
+  </si>
+  <si>
+    <t>路径不存在。</t>
+  </si>
+  <si>
+    <t>DirectoryNotFoundException_with_dir_path</t>
+  </si>
+  <si>
+    <t>The directory "{0}" does not exist.</t>
+  </si>
+  <si>
+    <t>路徑 「{0}」不存在。</t>
+  </si>
+  <si>
+    <t>路径 “{0}”不存在。</t>
   </si>
 </sst>
 </file>
@@ -1442,14 +1466,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>
@@ -1913,6 +1937,52 @@
         <v>83</v>
       </c>
     </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
   <si>
     <t>Project</t>
   </si>
@@ -303,6 +303,30 @@
   </si>
   <si>
     <t>路径 “{0}”不存在。</t>
+  </si>
+  <si>
+    <t>MacroParameterException_invalid_name_empty_name</t>
+  </si>
+  <si>
+    <t>Invalid macro parameter name. You may have provided null or whitespace.</t>
+  </si>
+  <si>
+    <t>無效的宏參數名稱。 您可能提供了 null 或空白符。</t>
+  </si>
+  <si>
+    <t>无效的宏参数名称。您可能提供了 null 或空白符。</t>
+  </si>
+  <si>
+    <t>MacroParameterException_invalid_name_not_match</t>
+  </si>
+  <si>
+    <t>Invalid macro parameter name. You may have provided special characters other than letters, numbers, minus signs, and underscores.</t>
+  </si>
+  <si>
+    <t>無效的宏參數名稱。 您可能提供了字母、數位、英文減號和英文下劃線之外的特殊字元。</t>
+  </si>
+  <si>
+    <t>无效的宏参数名称。您可能提供了字母、数字、英文减号和英文下划线之外的特殊字符。</t>
   </si>
 </sst>
 </file>
@@ -1466,14 +1490,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19:F19"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>
@@ -1983,6 +2007,52 @@
         <v>91</v>
       </c>
     </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>Project</t>
   </si>
@@ -327,6 +327,30 @@
   </si>
   <si>
     <t>无效的宏参数名称。您可能提供了字母、数字、英文减号和英文下划线之外的特殊字符。</t>
+  </si>
+  <si>
+    <t>Exception_get_summary_with_reason</t>
+  </si>
+  <si>
+    <t>When "{0}", an exception of type "{1}" is thrown: {2}</t>
+  </si>
+  <si>
+    <t>當 「{0}」 時，引發了一個 「{1}」 類型的異常：{2}</t>
+  </si>
+  <si>
+    <t>当 “{0}” 时，引发了一个 “{1}” 类型的异常：{2}</t>
+  </si>
+  <si>
+    <t>Exception_get_summary_without_reason</t>
+  </si>
+  <si>
+    <t>When method "{0}" is called, an exception of type "{1}" is thrown: {2}</t>
+  </si>
+  <si>
+    <t>當調用方法 「{0}」 時，引發了一個 「{1}」 類型的異常：{2}</t>
+  </si>
+  <si>
+    <t>当调用方法 “{0}” 时，引发了一个 “{1}” 类型的异常：{2}</t>
   </si>
 </sst>
 </file>
@@ -1490,19 +1514,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="32.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="32.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="32.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2053,6 +2079,52 @@
         <v>99</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -1521,7 +1521,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:B25"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>

--- a/assets/内置资源文件设计.xlsx
+++ b/assets/内置资源文件设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="130">
   <si>
     <t>Project</t>
   </si>
@@ -351,6 +351,72 @@
   </si>
   <si>
     <t>当调用方法 “{0}” 时，引发了一个 “{1}” 类型的异常：{2}</t>
+  </si>
+  <si>
+    <t>LogLevel_Tace</t>
+  </si>
+  <si>
+    <t>Trace</t>
+  </si>
+  <si>
+    <t>追蹤</t>
+  </si>
+  <si>
+    <t>追踪</t>
+  </si>
+  <si>
+    <t>LogLevel_Debug</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>調試</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>LogLevel_Information</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>資訊</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>LogLevel_Warning</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>LogLevel_Error</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>錯誤</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>LogLevel_Fatal</t>
+  </si>
+  <si>
+    <t>Fatal</t>
+  </si>
+  <si>
+    <t>致命的</t>
   </si>
 </sst>
 </file>
@@ -1514,14 +1580,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.3" customHeight="1" outlineLevelCol="7"/>
@@ -2125,6 +2191,144 @@
         <v>107</v>
       </c>
     </row>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
